--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_2.xlsx
@@ -518,936 +518,936 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_1</t>
+          <t>model_26_2_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999791647514815</v>
+        <v>0.9999787409621979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990337497562002</v>
+        <v>0.9989747346594118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999623422421737</v>
+        <v>0.9999782227063923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999694805119784</v>
+        <v>0.9999338100531703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999673779254505</v>
+        <v>0.9999750906983483</v>
       </c>
       <c r="G2" t="n">
-        <v>1.944878993034003e-05</v>
+        <v>1.98443786243473e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000901952189103363</v>
+        <v>0.0009570401914919362</v>
       </c>
       <c r="I2" t="n">
-        <v>2.570983467115732e-05</v>
+        <v>2.205780506823057e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.636701165079014e-05</v>
+        <v>7.551314401719817e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>3.603830245513712e-05</v>
+        <v>1.480510044874167e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003787838411247882</v>
+        <v>0.0004109430811237375</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004410078222700821</v>
+        <v>0.004454702978240783</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000023811712593</v>
+        <v>1.000024296043202</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004597824382761637</v>
+        <v>0.004644348906530914</v>
       </c>
       <c r="P2" t="n">
-        <v>111.6954514084272</v>
+        <v>111.6551795673316</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.5448635274963</v>
+        <v>166.5045916864006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_2</t>
+          <t>model_26_2_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999978755396244</v>
+        <v>0.9999810707002801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990333589074376</v>
+        <v>0.9989746000583574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999474000449596</v>
+        <v>0.9999752800695111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999684227666348</v>
+        <v>0.9999156315919122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999620337223827</v>
+        <v>0.999970839308023</v>
       </c>
       <c r="G3" t="n">
-        <v>1.983090507582259e-05</v>
+        <v>1.766967038830593e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000902317029266908</v>
+        <v>0.0009571658356679474</v>
       </c>
       <c r="I3" t="n">
-        <v>3.591122323415688e-05</v>
+        <v>2.503834580395211e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.797400095007863e-05</v>
+        <v>9.625213579371935e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>4.194215771885965e-05</v>
+        <v>1.733195815408262e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003827699783083035</v>
+        <v>0.0004021844390446864</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004453190437857176</v>
+        <v>0.004203530705050925</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00002427954715</v>
+        <v>1.000021633485394</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004642771974171786</v>
+        <v>0.004382483709673079</v>
       </c>
       <c r="P3" t="n">
-        <v>111.6565379494563</v>
+        <v>111.8873218511056</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.5059500685253</v>
+        <v>166.7367339701746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_0</t>
+          <t>model_26_2_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999784858246213</v>
+        <v>0.9999754661688399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990319739112209</v>
+        <v>0.9989743446817746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999757439207457</v>
+        <v>0.9999813860712345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99996853394767</v>
+        <v>0.9999438706263651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999708680917244</v>
+        <v>0.9999787525839758</v>
       </c>
       <c r="G4" t="n">
-        <v>2.008253835282558e-05</v>
+        <v>2.290125447722354e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009036098624409306</v>
+        <v>0.0009574042184982267</v>
       </c>
       <c r="I4" t="n">
-        <v>1.656019432367496e-05</v>
+        <v>1.885369319340903e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.780508814420804e-05</v>
+        <v>6.403548692652562e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>3.21826412339415e-05</v>
+        <v>1.262862094303079e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003801702281309473</v>
+        <v>0.0004283128764688123</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004481354522108866</v>
+        <v>0.004785525517351626</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000024587629004</v>
+        <v>1.000028038664183</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004672135061797762</v>
+        <v>0.004989255246028769</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6313197182735</v>
+        <v>111.3686377364794</v>
       </c>
       <c r="Q4" t="n">
-        <v>166.4807318373425</v>
+        <v>166.2180498555484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_3</t>
+          <t>model_26_2_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999775340259276</v>
+        <v>0.999982690126878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990316836047701</v>
+        <v>0.998974090017743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999314839487177</v>
+        <v>0.9999725657991507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999658541525064</v>
+        <v>0.9998921259592294</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999553483725472</v>
+        <v>0.9999662727995574</v>
       </c>
       <c r="G5" t="n">
-        <v>2.097100065426407e-05</v>
+        <v>1.615800674377264e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009038808507697424</v>
+        <v>0.0009576419361932613</v>
       </c>
       <c r="I5" t="n">
-        <v>4.677751550994681e-05</v>
+        <v>2.778757844917668e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>5.187639148595429e-05</v>
+        <v>1.230686587100961e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>4.932760645923249e-05</v>
+        <v>2.004610957746877e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003911477918503265</v>
+        <v>0.0003941590084510508</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004579410513839535</v>
+        <v>0.004019702320293462</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00002567539894</v>
+        <v>1.000019782712139</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004774365500100291</v>
+        <v>0.004190829369999275</v>
       </c>
       <c r="P5" t="n">
-        <v>111.5447399916335</v>
+        <v>112.066189715085</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.3941521107026</v>
+        <v>166.9156018341541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_4</t>
+          <t>model_26_2_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999756864422689</v>
+        <v>0.9999837700011749</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990288322156898</v>
+        <v>0.9989732797682338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999152657989926</v>
+        <v>0.9999700626361282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999619706754252</v>
+        <v>0.9998652462256996</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999476673415195</v>
+        <v>0.9999615580708703</v>
       </c>
       <c r="G6" t="n">
-        <v>2.269563890015392e-05</v>
+        <v>1.514999148862502e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009065424973146606</v>
+        <v>0.0009583982685442148</v>
       </c>
       <c r="I6" t="n">
-        <v>5.785002678440258e-05</v>
+        <v>3.032298450098888e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>5.777639960337774e-05</v>
+        <v>1.537345420715033e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>5.781300547703568e-05</v>
+        <v>2.284835721883529e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004016536605576406</v>
+        <v>0.0003864406589504687</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004763994007149245</v>
+        <v>0.003892298997844978</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000027786923121</v>
+        <v>1.000018548570086</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004966807094860703</v>
+        <v>0.004058002224352924</v>
       </c>
       <c r="P6" t="n">
-        <v>111.3866755417401</v>
+        <v>112.195021175632</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.2360876608092</v>
+        <v>167.044433294701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_5</t>
+          <t>model_26_2_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999734832775385</v>
+        <v>0.9999709228243155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990255021411176</v>
+        <v>0.9989732493894015</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998993575137883</v>
+        <v>0.9999847495200219</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999573606082161</v>
+        <v>0.9999418185917311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999395814736918</v>
+        <v>0.9999814215589674</v>
       </c>
       <c r="G7" t="n">
-        <v>2.475219646813041e-05</v>
+        <v>2.714226716092497e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009096509757544721</v>
+        <v>0.0009584266258507836</v>
       </c>
       <c r="I7" t="n">
-        <v>6.871098628148011e-05</v>
+        <v>1.544692010921803e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>6.478028642650046e-05</v>
+        <v>6.637656127794767e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>6.674563635399029e-05</v>
+        <v>1.10422881185064e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004113834697569787</v>
+        <v>0.0004557127985137585</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004975157933988669</v>
+        <v>0.00520982410076626</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00003030482567</v>
+        <v>1.000033231057925</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00518696070723527</v>
+        <v>0.005431617098558515</v>
       </c>
       <c r="P7" t="n">
-        <v>111.2131926534004</v>
+        <v>111.0288367425436</v>
       </c>
       <c r="Q7" t="n">
-        <v>166.0626047724694</v>
+        <v>165.8782488616126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_6</t>
+          <t>model_26_2_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999711169859612</v>
+        <v>0.9999844421062191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990222227345091</v>
+        <v>0.9989722461061474</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998839190369662</v>
+        <v>0.9999677594887603</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999525491989144</v>
+        <v>0.9998364517598215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999315043890817</v>
+        <v>0.9999568313045659</v>
       </c>
       <c r="G8" t="n">
-        <v>2.696102578748208e-05</v>
+        <v>1.452261093191006e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009127121578741838</v>
+        <v>0.0009593631467293665</v>
       </c>
       <c r="I8" t="n">
-        <v>7.925119657503132e-05</v>
+        <v>3.265579851360758e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>7.209006406719116e-05</v>
+        <v>1.865848577597805e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>7.566856422262928e-05</v>
+        <v>2.565775954222886e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004196814084771906</v>
+        <v>0.0003791514376883558</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005192400773002993</v>
+        <v>0.003810854357215723</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000033009158902</v>
+        <v>1.000017780450035</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005413452023661105</v>
+        <v>0.003973090316758434</v>
       </c>
       <c r="P8" t="n">
-        <v>111.0422364482938</v>
+        <v>112.2796074969708</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.8916485673628</v>
+        <v>167.1290196160398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_7</t>
+          <t>model_26_2_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999685966154646</v>
+        <v>0.9999646424237673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990187534947441</v>
+        <v>0.9989712601361356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998690055173642</v>
+        <v>0.9999882545566954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999474186569032</v>
+        <v>0.9999217529206985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999233634319536</v>
+        <v>0.9999824835599975</v>
       </c>
       <c r="G9" t="n">
-        <v>2.931368101459223e-05</v>
+        <v>3.300474539509156e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009159505409127993</v>
+        <v>0.0009602835064563503</v>
       </c>
       <c r="I9" t="n">
-        <v>8.943300625945111e-05</v>
+        <v>1.189673535751177e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>7.98846869991904e-05</v>
+        <v>8.926858611050094e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>8.466205342619711e-05</v>
+        <v>1.041107684862038e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004274228349995093</v>
+        <v>0.000491579127301754</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005414211024202163</v>
+        <v>0.005744975665317614</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000035889582326</v>
+        <v>1.000040408658552</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005644705196464343</v>
+        <v>0.005989551173129277</v>
       </c>
       <c r="P9" t="n">
-        <v>110.8749124441858</v>
+        <v>110.6377184139695</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.7243245632549</v>
+        <v>165.4871305330385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_8</t>
+          <t>model_26_2_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999965981086484</v>
+        <v>0.9999848080091677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990149111597308</v>
+        <v>0.9989710619625479</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998550193541602</v>
+        <v>0.9999656412957694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999419149504573</v>
+        <v>0.9998067482221326</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999152601105001</v>
+        <v>0.9999521761824528</v>
       </c>
       <c r="G10" t="n">
-        <v>3.175516250939698e-05</v>
+        <v>1.418105659069248e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009195371919886518</v>
+        <v>0.0009604684928015989</v>
       </c>
       <c r="I10" t="n">
-        <v>9.898168797647611e-05</v>
+        <v>3.480127576775063e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>8.824624341584835e-05</v>
+        <v>2.204722927368132e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>9.361396569616222e-05</v>
+        <v>2.842457940130322e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004348915799575161</v>
+        <v>0.0003723687340460669</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005635171914804106</v>
+        <v>0.003765774368000888</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000038878758304</v>
+        <v>1.000017362275237</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005875072849631312</v>
+        <v>0.00392609117907428</v>
       </c>
       <c r="P10" t="n">
-        <v>110.7149104942443</v>
+        <v>112.3272070537869</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.5643226133133</v>
+        <v>167.1766191728559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_9</t>
+          <t>model_26_2_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999633939253132</v>
+        <v>0.9999849416602583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990112348720717</v>
+        <v>0.9989697838233564</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998417817792801</v>
+        <v>0.9999636943682131</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999936515776534</v>
+        <v>0.9997769297152028</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999074570807013</v>
+        <v>0.9999476550258873</v>
       </c>
       <c r="G11" t="n">
-        <v>3.417016389912917e-05</v>
+        <v>1.405629916418963e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009229688451481729</v>
+        <v>0.0009616615796330145</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000108019290883808</v>
+        <v>3.677328153174897e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>9.644898784027667e-05</v>
+        <v>2.544908909682705e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001022341393620423</v>
+        <v>3.111177545494864e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004414820929964578</v>
+        <v>0.0003661985843647643</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005845525117483387</v>
+        <v>0.003749173130730246</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000041835513928</v>
+        <v>1.000017209531133</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006094381223639808</v>
+        <v>0.003908783192763729</v>
       </c>
       <c r="P11" t="n">
-        <v>110.5683153905377</v>
+        <v>112.3448798471405</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.4177275096067</v>
+        <v>167.1942919662095</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_10</t>
+          <t>model_26_2_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999608382545769</v>
+        <v>0.9999849051713861</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990075203224769</v>
+        <v>0.9989684543973264</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998294771769221</v>
+        <v>0.9999618980227544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999310902679752</v>
+        <v>0.9997475403628091</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998999241901529</v>
+        <v>0.9999433048000231</v>
       </c>
       <c r="G12" t="n">
-        <v>3.655577035050489e-05</v>
+        <v>1.409035992468668e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009264362141450423</v>
+        <v>0.0009629025404770428</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001164199315639554</v>
+        <v>3.859276556295922e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001046917414008733</v>
+        <v>2.88019886022324e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001105558844286748</v>
+        <v>3.369737708259581e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004476445448438116</v>
+        <v>0.0003605901233059933</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006046136812089592</v>
+        <v>0.003753712818621942</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000044756280484</v>
+        <v>1.000017251232702</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006303533373408856</v>
+        <v>0.003913516144567424</v>
       </c>
       <c r="P12" t="n">
-        <v>110.4333430174054</v>
+        <v>112.3400393753792</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.2827551364744</v>
+        <v>167.1894514944483</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_11</t>
+          <t>model_26_2_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999583842301638</v>
+        <v>0.9999559241878216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990039273059405</v>
+        <v>0.9989680709405773</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998181551082339</v>
+        <v>0.9999917434614494</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999258313947216</v>
+        <v>0.9998745889510646</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998928095021664</v>
+        <v>0.9999809282840164</v>
       </c>
       <c r="G13" t="n">
-        <v>3.884649442095016e-05</v>
+        <v>4.114283596399287e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009297901373665601</v>
+        <v>0.0009632604805204973</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001241497734587449</v>
+        <v>8.36289031914298e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001126813327482032</v>
+        <v>1.430758453994037e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001184156321936996</v>
+        <v>1.133547117521396e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004531925665839803</v>
+        <v>0.0005309586549502455</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006232695598290531</v>
+        <v>0.006414268154980182</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000047560879813</v>
+        <v>1.000050372356775</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006498034353368295</v>
+        <v>0.006687336829703234</v>
       </c>
       <c r="P13" t="n">
-        <v>110.3117854378338</v>
+        <v>110.1969214832957</v>
       </c>
       <c r="Q13" t="n">
-        <v>165.1611975569028</v>
+        <v>165.0463336023647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_12</t>
+          <t>model_26_2_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999560388713418</v>
+        <v>0.9999847443142734</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999000608961223</v>
+        <v>0.9989671061960523</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998075423190015</v>
+        <v>0.9999602481165156</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999208470545741</v>
+        <v>0.9997189874615159</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998861028578562</v>
+        <v>0.99993915920011</v>
       </c>
       <c r="G14" t="n">
-        <v>4.103578393196912e-05</v>
+        <v>1.424051297860097e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009328876665017742</v>
+        <v>0.0009641610271871684</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001313953736302674</v>
+        <v>4.026392410315387e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001202538371600536</v>
+        <v>3.205946115015947e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001258246053951606</v>
+        <v>3.616135716486419e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004581645558064245</v>
+        <v>0.0003555222655456426</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006405917883642368</v>
+        <v>0.003773660421739212</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000050241289895</v>
+        <v>1.000017435069402</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006678631070027124</v>
+        <v>0.003934312958446626</v>
       </c>
       <c r="P14" t="n">
-        <v>110.2021321861629</v>
+        <v>112.3188392577023</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.0515443052319</v>
+        <v>167.1682513767713</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_13</t>
+          <t>model_26_2_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999538653111345</v>
+        <v>0.9999844962820482</v>
       </c>
       <c r="C15" t="n">
-        <v>0.998997556223147</v>
+        <v>0.9989657622878844</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997978965176025</v>
+        <v>0.999958730849699</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999162325373381</v>
+        <v>0.9996915961260735</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998799483101852</v>
+        <v>0.9999352369696972</v>
       </c>
       <c r="G15" t="n">
-        <v>4.306470697712409e-05</v>
+        <v>1.447204017344247e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000935737263495954</v>
+        <v>0.0009654155064711752</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001379807885235493</v>
+        <v>4.180073470423122e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001272644847269077</v>
+        <v>3.518441585574981e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000132623665648165</v>
+        <v>3.849257527999052e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000462417916995482</v>
+        <v>0.0003509171301173057</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006562370530313272</v>
+        <v>0.00380421347632365</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000052725358703</v>
+        <v>1.000017718534802</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006841744229768435</v>
+        <v>0.003966166719818266</v>
       </c>
       <c r="P15" t="n">
-        <v>110.1056135198927</v>
+        <v>112.2865840678649</v>
       </c>
       <c r="Q15" t="n">
-        <v>164.9550256389617</v>
+        <v>167.1359961869339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_14</t>
+          <t>model_26_2_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999518084793508</v>
+        <v>0.9999841890303676</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989947190297372</v>
+        <v>0.9989644492901854</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9997888955830496</v>
+        <v>0.9999573434858329</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999118867990139</v>
+        <v>0.9996654630665388</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998741797089943</v>
+        <v>0.9999315474838084</v>
       </c>
       <c r="G16" t="n">
-        <v>4.49846691627291e-05</v>
+        <v>1.475884613051681e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009383856590056612</v>
+        <v>0.0009666411321893334</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001441259376933031</v>
+        <v>4.320596908582737e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001338667874709644</v>
+        <v>3.816581950203153e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001389963625821338</v>
+        <v>4.068545928582196e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004662799394783012</v>
+        <v>0.0003467622089692573</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006707061142015115</v>
+        <v>0.003841724369409759</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000055076023599</v>
+        <v>1.00001806967958</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006992594620361283</v>
+        <v>0.004005274529281304</v>
       </c>
       <c r="P16" t="n">
-        <v>110.0183776230261</v>
+        <v>112.2473358345741</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.8677897420951</v>
+        <v>167.0967479536431</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_15</t>
+          <t>model_26_2_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999498869617558</v>
+        <v>0.9999838441852195</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989920769729683</v>
+        <v>0.9989631818767951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997806491321722</v>
+        <v>0.9999560738884766</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999078212803266</v>
+        <v>0.9996408006202853</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998688359986152</v>
+        <v>0.999928097047552</v>
       </c>
       <c r="G17" t="n">
-        <v>4.677832149284203e-05</v>
+        <v>1.508074393934054e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009408519030265012</v>
+        <v>0.0009678242069560739</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000149755983158541</v>
+        <v>4.449192001735978e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001400433639654509</v>
+        <v>4.097944746965476e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001448996735619959</v>
+        <v>4.273626167608075e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004697539229953415</v>
+        <v>0.000343046010552773</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006839467924688442</v>
+        <v>0.003883393353671572</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000057272043708</v>
+        <v>1.000018463788321</v>
       </c>
       <c r="O17" t="n">
-        <v>0.007130638233892838</v>
+        <v>0.004048717448469832</v>
       </c>
       <c r="P17" t="n">
-        <v>109.9401813566465</v>
+        <v>112.2041837275075</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.7895934757155</v>
+        <v>167.0535958465766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_26_2_16</t>
+          <t>model_26_2_0</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999481225813812</v>
+        <v>0.9999436289880246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989896711508928</v>
+        <v>0.9989631497385685</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997731356532366</v>
+        <v>0.9999948673099183</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999040980411082</v>
+        <v>0.9997852132087961</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998639567242559</v>
+        <v>0.9999750116172587</v>
       </c>
       <c r="G18" t="n">
-        <v>4.842529312508819e-05</v>
+        <v>5.261986527762029e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009430976323306961</v>
+        <v>0.000967854206579898</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000154885611484599</v>
+        <v>5.198803824683536e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001456999292425456</v>
+        <v>2.450406243548262e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001502899121520485</v>
+        <v>1.485210311037325e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004727823317490483</v>
+        <v>0.000569927567441786</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00695882843049663</v>
+        <v>0.007253955147202131</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000059288478421</v>
+        <v>1.000064424013686</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007255080163543589</v>
+        <v>0.007562771035575769</v>
       </c>
       <c r="P18" t="n">
-        <v>109.8709765910254</v>
+        <v>109.7048336852878</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.7203887100944</v>
+        <v>164.5542458043568</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999464547877378</v>
+        <v>0.9999834783319311</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989873380464298</v>
+        <v>0.9989619638520997</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997662862331244</v>
+        <v>0.999954909718243</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999005111576337</v>
+        <v>0.9996176319086142</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998593716148587</v>
+        <v>0.9999248824786163</v>
       </c>
       <c r="G19" t="n">
-        <v>4.998210528356855e-05</v>
+        <v>1.542225192485687e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009452754829354154</v>
+        <v>0.0009689611795441966</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001595618712739026</v>
+        <v>4.567108582843517e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001511493348071129</v>
+        <v>4.362266195297928e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001553551804259449</v>
+        <v>4.464687389070723e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004756829668773441</v>
+        <v>0.0003396947359941895</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007069802351096425</v>
+        <v>0.003927117508409555</v>
       </c>
       <c r="N19" t="n">
-        <v>1.0000611945283</v>
+        <v>1.000018881906364</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007370778473691005</v>
+        <v>0.004094303030996489</v>
       </c>
       <c r="P19" t="n">
-        <v>109.8076910218484</v>
+        <v>112.1593983225326</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.6571031409175</v>
+        <v>167.0088104416016</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999449367816706</v>
+        <v>0.9999831018727293</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989852150483726</v>
+        <v>0.9989608120129508</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9997600983900922</v>
+        <v>0.9999538412063438</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998972539142483</v>
+        <v>0.9995959358809234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998552190321081</v>
+        <v>0.9999218889490028</v>
       </c>
       <c r="G20" t="n">
-        <v>5.13990973144888e-05</v>
+        <v>1.577366006510123e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009472572084329617</v>
+        <v>0.000970036370829656</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001637864568708848</v>
+        <v>4.675336113813915e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001560979316476072</v>
+        <v>4.609786452087443e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001599426272761545</v>
+        <v>4.642610910348224e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004782291198587278</v>
+        <v>0.0003367058133583223</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007169316377067538</v>
+        <v>0.003971606735957279</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000062929392376</v>
+        <v>1.000019312145452</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007474529017770138</v>
+        <v>0.004140686257066316</v>
       </c>
       <c r="P20" t="n">
-        <v>109.7517798952646</v>
+        <v>112.1143381871005</v>
       </c>
       <c r="Q20" t="n">
-        <v>164.6011920143336</v>
+        <v>166.9637503061696</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999435445419872</v>
+        <v>0.999982725837128</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989832746716365</v>
+        <v>0.9989597207693721</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997544743257503</v>
+        <v>0.9999528625728339</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998942638737458</v>
+        <v>0.9995757433050647</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999851425559216</v>
+        <v>0.999919119156405</v>
       </c>
       <c r="G21" t="n">
-        <v>5.269869194670918e-05</v>
+        <v>1.612467279295221e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009490684649434446</v>
+        <v>0.0009710549988104311</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001676261375304939</v>
+        <v>4.774460034279454e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001606405780617</v>
+        <v>4.840154500699671e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001641333577960969</v>
+        <v>4.807236391250806e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004804773254240825</v>
+        <v>0.0003340431974428209</v>
       </c>
       <c r="M21" t="n">
-        <v>0.007259386471783216</v>
+        <v>0.004015553858803565</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000064520523443</v>
+        <v>1.000019741900425</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007568433582888663</v>
+        <v>0.004186504299915256</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7018398469411</v>
+        <v>112.0703199747965</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.5512519660101</v>
+        <v>166.9197320938655</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999942266230802</v>
+        <v>0.9999823576972908</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989814919429437</v>
+        <v>0.9989586980196737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997493656593071</v>
+        <v>0.9999519717250407</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998915111900664</v>
+        <v>0.9995570195382306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998479525815689</v>
+        <v>0.9999165653933052</v>
       </c>
       <c r="G22" t="n">
-        <v>5.389193932678185e-05</v>
+        <v>1.64683151714553e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009507325639253576</v>
+        <v>0.000972009690760318</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000171113943954122</v>
+        <v>4.864692307043815e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001648226179486153</v>
+        <v>5.053765565402426e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001679700303742347</v>
+        <v>4.959021936036904e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004825192320530037</v>
+        <v>0.0003316413239069619</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007341112948782483</v>
+        <v>0.004058117195382028</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000065981450512</v>
+        <v>1.000020162631668</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007653639325210919</v>
+        <v>0.004230879645850116</v>
       </c>
       <c r="P22" t="n">
-        <v>109.6570592798022</v>
+        <v>112.028144631645</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5064713988712</v>
+        <v>166.877556750714</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999411029480949</v>
+        <v>0.9999820021134087</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989798865229035</v>
+        <v>0.9989577499837624</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997447287750902</v>
+        <v>0.999951164981462</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998890139811881</v>
+        <v>0.9995397538945137</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998448069611353</v>
+        <v>0.9999142173290918</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49778126715815e-05</v>
+        <v>1.680023711705377e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009522311530631075</v>
+        <v>0.0009728946406695804</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001742796535843863</v>
+        <v>4.946405824436425e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001686165254042836</v>
+        <v>5.250741556922278e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001714450644473768</v>
+        <v>5.098581555269035e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004843088465720178</v>
+        <v>0.0003295034410610705</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007414702466827749</v>
+        <v>0.004098809231600535</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000067310916463</v>
+        <v>1.000020569013247</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007730361701390674</v>
+        <v>0.004273304026294572</v>
       </c>
       <c r="P23" t="n">
-        <v>109.6171617201863</v>
+        <v>111.9882351150886</v>
       </c>
       <c r="Q23" t="n">
-        <v>164.4665738392553</v>
+        <v>166.8376472341577</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999400423536456</v>
+        <v>0.9999816614240082</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989784407383864</v>
+        <v>0.9989568597867136</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997405151730224</v>
+        <v>0.9999504233438558</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998867484013231</v>
+        <v>0.9995238148014971</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998419443196751</v>
+        <v>0.9999120571244448</v>
       </c>
       <c r="G24" t="n">
-        <v>5.596783103532739e-05</v>
+        <v>1.711825571790587e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009535807294472036</v>
+        <v>0.0009737256005394725</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001771563785618234</v>
+        <v>5.021524882120727e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000172058528360808</v>
+        <v>5.432583526000244e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001746074856051057</v>
+        <v>5.226975547348357e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000485911185014936</v>
+        <v>0.0003275950771466432</v>
       </c>
       <c r="M24" t="n">
-        <v>0.007481165085421347</v>
+        <v>0.004137421385102788</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000068523024405</v>
+        <v>1.000020958372562</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007799653771254389</v>
+        <v>0.004313559979109592</v>
       </c>
       <c r="P24" t="n">
-        <v>109.5814669561681</v>
+        <v>111.9507301561554</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4308790752371</v>
+        <v>166.8001422752245</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999390656044678</v>
+        <v>0.9999813384389699</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989770699410567</v>
+        <v>0.9989560382250097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997367269624539</v>
+        <v>0.9999497540245084</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998846276433687</v>
+        <v>0.9995091986651875</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998393150776947</v>
+        <v>0.9999100781978789</v>
       </c>
       <c r="G25" t="n">
-        <v>5.687958351848633e-05</v>
+        <v>1.741974807379398e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009548603085834696</v>
+        <v>0.0009744924923276751</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001797426787835603</v>
+        <v>5.089318961405006e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001752805093032577</v>
+        <v>5.599332474894581e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001775120653727818</v>
+        <v>5.344595089631465e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004874177924909973</v>
+        <v>0.0003258852065925844</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00754185544269355</v>
+        <v>0.004173697170829957</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00006963930918</v>
+        <v>1.00002132749832</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007862927842682029</v>
+        <v>0.004351380100136395</v>
       </c>
       <c r="P25" t="n">
-        <v>109.5491481892086</v>
+        <v>111.9158120970784</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.3985603082776</v>
+        <v>166.7652242161475</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999938183171621</v>
+        <v>0.9999810348962911</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989758434859106</v>
+        <v>0.9989552781001907</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997332948458605</v>
+        <v>0.9999491399031545</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998827230021212</v>
+        <v>0.9994957621589178</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998369441330951</v>
+        <v>0.9999082699049222</v>
       </c>
       <c r="G26" t="n">
-        <v>5.770329584667e-05</v>
+        <v>1.770309184043029e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009560051506272015</v>
+        <v>0.0009752020354806427</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001820858652949443</v>
+        <v>5.151522141267155e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001781741529596989</v>
+        <v>5.752623553317828e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001801312985075211</v>
+        <v>5.452072847292491e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000488727463056262</v>
+        <v>0.000324360848390688</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007596268547561361</v>
+        <v>0.004207504229401355</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000070647803862</v>
+        <v>1.000021674404239</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007919657426074719</v>
+        <v>0.004386626395181436</v>
       </c>
       <c r="P26" t="n">
-        <v>109.5203925313773</v>
+        <v>111.883542506778</v>
       </c>
       <c r="Q26" t="n">
-        <v>164.3698046504463</v>
+        <v>166.732954625847</v>
       </c>
     </row>
   </sheetData>
